--- a/doc/bak/用户批量导入模板.xlsx
+++ b/doc/bak/用户批量导入模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDE\IdeaProjects\hsd-servers\doc\bak\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="248">
   <si>
     <t>账号</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -597,6 +597,188 @@
   <si>
     <t>a032</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>t002</t>
+  </si>
+  <si>
+    <t>t003</t>
+  </si>
+  <si>
+    <t>t004</t>
+  </si>
+  <si>
+    <t>t005</t>
+  </si>
+  <si>
+    <t>t006</t>
+  </si>
+  <si>
+    <t>t007</t>
+  </si>
+  <si>
+    <t>t008</t>
+  </si>
+  <si>
+    <t>t009</t>
+  </si>
+  <si>
+    <t>t010</t>
+  </si>
+  <si>
+    <t>t011</t>
+  </si>
+  <si>
+    <t>t012</t>
+  </si>
+  <si>
+    <t>t013</t>
+  </si>
+  <si>
+    <t>t014</t>
+  </si>
+  <si>
+    <t>t015</t>
+  </si>
+  <si>
+    <t>t016</t>
+  </si>
+  <si>
+    <t>t017</t>
+  </si>
+  <si>
+    <t>t018</t>
+  </si>
+  <si>
+    <t>t019</t>
+  </si>
+  <si>
+    <t>t020</t>
+  </si>
+  <si>
+    <t>t021</t>
+  </si>
+  <si>
+    <t>t022</t>
+  </si>
+  <si>
+    <t>t023</t>
+  </si>
+  <si>
+    <t>t024</t>
+  </si>
+  <si>
+    <t>t025</t>
+  </si>
+  <si>
+    <t>t026</t>
+  </si>
+  <si>
+    <t>t027</t>
+  </si>
+  <si>
+    <t>t028</t>
+  </si>
+  <si>
+    <t>t029</t>
+  </si>
+  <si>
+    <t>t030</t>
+  </si>
+  <si>
+    <t>t031</t>
+  </si>
+  <si>
+    <t>t032</t>
+  </si>
+  <si>
+    <t>t033</t>
+  </si>
+  <si>
+    <t>t034</t>
+  </si>
+  <si>
+    <t>t035</t>
+  </si>
+  <si>
+    <t>t036</t>
+  </si>
+  <si>
+    <t>t037</t>
+  </si>
+  <si>
+    <t>t038</t>
+  </si>
+  <si>
+    <t>t039</t>
+  </si>
+  <si>
+    <t>t040</t>
+  </si>
+  <si>
+    <t>t041</t>
+  </si>
+  <si>
+    <t>t042</t>
+  </si>
+  <si>
+    <t>t043</t>
+  </si>
+  <si>
+    <t>t044</t>
+  </si>
+  <si>
+    <t>t045</t>
+  </si>
+  <si>
+    <t>t046</t>
+  </si>
+  <si>
+    <t>t047</t>
+  </si>
+  <si>
+    <t>t048</t>
+  </si>
+  <si>
+    <t>t049</t>
+  </si>
+  <si>
+    <t>t050</t>
+  </si>
+  <si>
+    <t>t051</t>
+  </si>
+  <si>
+    <t>t052</t>
+  </si>
+  <si>
+    <t>t053</t>
+  </si>
+  <si>
+    <t>t054</t>
+  </si>
+  <si>
+    <t>t055</t>
+  </si>
+  <si>
+    <t>t056</t>
+  </si>
+  <si>
+    <t>t057</t>
+  </si>
+  <si>
+    <t>t058</t>
+  </si>
+  <si>
+    <t>t059</t>
   </si>
 </sst>
 </file>
@@ -1561,1282 +1743,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="27.75" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="27.75" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>184</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>15021500001</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>185</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>15021500002</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>184</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>15021500003</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>186</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>15021500004</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>184</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>15021500005</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>185</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15021500006</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="B8" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>184</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>15021500007</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>185</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>15021500008</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="B10" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>184</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>15021500009</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="B11" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>185</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>15021500010</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="B12" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>184</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>15021500011</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>185</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>15021500012</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="B14" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>184</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>15021500013</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="B15" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>185</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>15021500014</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="B16" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>184</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>15021500015</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="B17" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>185</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>15021500016</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>184</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>15021500017</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>185</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>15021500018</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>184</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>15021500019</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>185</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>15021500020</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="B22" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>184</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>15021500021</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>185</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>15021500022</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>184</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>15021500023</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>185</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>15021500024</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>213</v>
       </c>
       <c r="B26" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>184</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>15021500025</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>214</v>
       </c>
       <c r="B27" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>185</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>15021500026</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="B28" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>184</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>15021500027</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="B29" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>185</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>15021500028</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="B30" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>184</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>15021500029</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="B31" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>185</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>15021500030</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>219</v>
       </c>
       <c r="B32" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>184</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>15021500031</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33" t="s">
         <v>187</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>185</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>15021500032</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="B34" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>184</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>15021500033</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="B35" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>185</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>15021500034</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="B36" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>184</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>15021500035</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="B37" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>185</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>15021500036</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>225</v>
       </c>
       <c r="B38" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>184</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>15021500037</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>226</v>
       </c>
       <c r="B39" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>185</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>15021500038</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="B40" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>184</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>15021500039</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c r="B41" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>185</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>15021500040</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="B42" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>184</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>15021500041</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s">
         <v>130</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>185</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>15021500042</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="B44" t="s">
         <v>133</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>184</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>15021500043</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="B45" t="s">
         <v>136</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>185</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>15021500044</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>233</v>
       </c>
       <c r="B46" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>184</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>15021500045</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="B47" t="s">
         <v>142</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>185</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>15021500046</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="B48" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>184</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>15021500047</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>236</v>
       </c>
       <c r="B49" t="s">
         <v>148</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>185</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>15021500048</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="B50" t="s">
         <v>151</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>184</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>15021500049</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="B51" t="s">
         <v>154</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>185</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>15021500050</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="B52" t="s">
         <v>157</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>184</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>15021500051</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="B53" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>185</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>15021500052</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>163</v>
+        <v>241</v>
       </c>
       <c r="B54" t="s">
         <v>163</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>184</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>15021500053</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="B55" t="s">
         <v>166</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>185</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>15021500054</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="B56" t="s">
         <v>169</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>184</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>15021500055</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
       <c r="B57" t="s">
         <v>172</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>185</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>15021500056</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="B58" t="s">
         <v>175</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>184</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>15021500057</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c r="B59" t="s">
         <v>178</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>185</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>15021500058</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="B60" t="s">
         <v>181</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>184</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>15021500059</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>183</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2" display="t001@heshidai.com"/>
-    <hyperlink ref="F4" r:id="rId3" display="t001@heshidai.com"/>
-    <hyperlink ref="F6" r:id="rId4" display="t001@heshidai.com"/>
-    <hyperlink ref="F8" r:id="rId5" display="t001@heshidai.com"/>
-    <hyperlink ref="F10" r:id="rId6" display="t001@heshidai.com"/>
-    <hyperlink ref="F12" r:id="rId7" display="t001@heshidai.com"/>
-    <hyperlink ref="F14" r:id="rId8" display="t001@heshidai.com"/>
-    <hyperlink ref="F16" r:id="rId9" display="t001@heshidai.com"/>
-    <hyperlink ref="F5" r:id="rId10" display="t001@heshidai.com"/>
-    <hyperlink ref="F7" r:id="rId11" display="t001@heshidai.com"/>
-    <hyperlink ref="F9" r:id="rId12" display="t001@heshidai.com"/>
-    <hyperlink ref="F11" r:id="rId13" display="t001@heshidai.com"/>
-    <hyperlink ref="F13" r:id="rId14" display="t001@heshidai.com"/>
-    <hyperlink ref="F15" r:id="rId15" display="t001@heshidai.com"/>
-    <hyperlink ref="F17" r:id="rId16" display="t001@heshidai.com"/>
-    <hyperlink ref="F18" r:id="rId17" display="t001@heshidai.com"/>
-    <hyperlink ref="F34" r:id="rId18" display="t001@heshidai.com"/>
-    <hyperlink ref="F50" r:id="rId19" display="t001@heshidai.com"/>
-    <hyperlink ref="F19" r:id="rId20" display="t001@heshidai.com"/>
-    <hyperlink ref="F35" r:id="rId21" display="t001@heshidai.com"/>
-    <hyperlink ref="F51" r:id="rId22" display="t001@heshidai.com"/>
-    <hyperlink ref="F20" r:id="rId23" display="t001@heshidai.com"/>
-    <hyperlink ref="F36" r:id="rId24" display="t001@heshidai.com"/>
-    <hyperlink ref="F52" r:id="rId25" display="t001@heshidai.com"/>
-    <hyperlink ref="F22" r:id="rId26" display="t001@heshidai.com"/>
-    <hyperlink ref="F38" r:id="rId27" display="t001@heshidai.com"/>
-    <hyperlink ref="F54" r:id="rId28" display="t001@heshidai.com"/>
-    <hyperlink ref="F24" r:id="rId29" display="t001@heshidai.com"/>
-    <hyperlink ref="F40" r:id="rId30" display="t001@heshidai.com"/>
-    <hyperlink ref="F56" r:id="rId31" display="t001@heshidai.com"/>
-    <hyperlink ref="F26" r:id="rId32" display="t001@heshidai.com"/>
-    <hyperlink ref="F42" r:id="rId33" display="t001@heshidai.com"/>
-    <hyperlink ref="F58" r:id="rId34" display="t001@heshidai.com"/>
-    <hyperlink ref="F28" r:id="rId35" display="t001@heshidai.com"/>
-    <hyperlink ref="F44" r:id="rId36" display="t001@heshidai.com"/>
-    <hyperlink ref="F60" r:id="rId37" display="t001@heshidai.com"/>
-    <hyperlink ref="F30" r:id="rId38" display="t001@heshidai.com"/>
-    <hyperlink ref="F46" r:id="rId39" display="t001@heshidai.com"/>
-    <hyperlink ref="F32" r:id="rId40" display="t001@heshidai.com"/>
-    <hyperlink ref="F48" r:id="rId41" display="t001@heshidai.com"/>
-    <hyperlink ref="F21" r:id="rId42" display="t001@heshidai.com"/>
-    <hyperlink ref="F37" r:id="rId43" display="t001@heshidai.com"/>
-    <hyperlink ref="F53" r:id="rId44" display="t001@heshidai.com"/>
-    <hyperlink ref="F23" r:id="rId45" display="t001@heshidai.com"/>
-    <hyperlink ref="F39" r:id="rId46" display="t001@heshidai.com"/>
-    <hyperlink ref="F55" r:id="rId47" display="t001@heshidai.com"/>
-    <hyperlink ref="F25" r:id="rId48" display="t001@heshidai.com"/>
-    <hyperlink ref="F41" r:id="rId49" display="t001@heshidai.com"/>
-    <hyperlink ref="F57" r:id="rId50" display="t001@heshidai.com"/>
-    <hyperlink ref="F27" r:id="rId51" display="t001@heshidai.com"/>
-    <hyperlink ref="F43" r:id="rId52" display="t001@heshidai.com"/>
-    <hyperlink ref="F59" r:id="rId53" display="t001@heshidai.com"/>
-    <hyperlink ref="F29" r:id="rId54" display="t001@heshidai.com"/>
-    <hyperlink ref="F45" r:id="rId55" display="t001@heshidai.com"/>
-    <hyperlink ref="F31" r:id="rId56" display="t001@heshidai.com"/>
-    <hyperlink ref="F47" r:id="rId57" display="t001@heshidai.com"/>
-    <hyperlink ref="F33" r:id="rId58" display="t001@heshidai.com"/>
-    <hyperlink ref="F49" r:id="rId59" display="t001@heshidai.com"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2" display="t001@heshidai.com"/>
+    <hyperlink ref="G4" r:id="rId3" display="t001@heshidai.com"/>
+    <hyperlink ref="G6" r:id="rId4" display="t001@heshidai.com"/>
+    <hyperlink ref="G8" r:id="rId5" display="t001@heshidai.com"/>
+    <hyperlink ref="G10" r:id="rId6" display="t001@heshidai.com"/>
+    <hyperlink ref="G12" r:id="rId7" display="t001@heshidai.com"/>
+    <hyperlink ref="G14" r:id="rId8" display="t001@heshidai.com"/>
+    <hyperlink ref="G16" r:id="rId9" display="t001@heshidai.com"/>
+    <hyperlink ref="G5" r:id="rId10" display="t001@heshidai.com"/>
+    <hyperlink ref="G7" r:id="rId11" display="t001@heshidai.com"/>
+    <hyperlink ref="G9" r:id="rId12" display="t001@heshidai.com"/>
+    <hyperlink ref="G11" r:id="rId13" display="t001@heshidai.com"/>
+    <hyperlink ref="G13" r:id="rId14" display="t001@heshidai.com"/>
+    <hyperlink ref="G15" r:id="rId15" display="t001@heshidai.com"/>
+    <hyperlink ref="G17" r:id="rId16" display="t001@heshidai.com"/>
+    <hyperlink ref="G18" r:id="rId17" display="t001@heshidai.com"/>
+    <hyperlink ref="G34" r:id="rId18" display="t001@heshidai.com"/>
+    <hyperlink ref="G50" r:id="rId19" display="t001@heshidai.com"/>
+    <hyperlink ref="G19" r:id="rId20" display="t001@heshidai.com"/>
+    <hyperlink ref="G35" r:id="rId21" display="t001@heshidai.com"/>
+    <hyperlink ref="G51" r:id="rId22" display="t001@heshidai.com"/>
+    <hyperlink ref="G20" r:id="rId23" display="t001@heshidai.com"/>
+    <hyperlink ref="G36" r:id="rId24" display="t001@heshidai.com"/>
+    <hyperlink ref="G52" r:id="rId25" display="t001@heshidai.com"/>
+    <hyperlink ref="G22" r:id="rId26" display="t001@heshidai.com"/>
+    <hyperlink ref="G38" r:id="rId27" display="t001@heshidai.com"/>
+    <hyperlink ref="G54" r:id="rId28" display="t001@heshidai.com"/>
+    <hyperlink ref="G24" r:id="rId29" display="t001@heshidai.com"/>
+    <hyperlink ref="G40" r:id="rId30" display="t001@heshidai.com"/>
+    <hyperlink ref="G56" r:id="rId31" display="t001@heshidai.com"/>
+    <hyperlink ref="G26" r:id="rId32" display="t001@heshidai.com"/>
+    <hyperlink ref="G42" r:id="rId33" display="t001@heshidai.com"/>
+    <hyperlink ref="G58" r:id="rId34" display="t001@heshidai.com"/>
+    <hyperlink ref="G28" r:id="rId35" display="t001@heshidai.com"/>
+    <hyperlink ref="G44" r:id="rId36" display="t001@heshidai.com"/>
+    <hyperlink ref="G60" r:id="rId37" display="t001@heshidai.com"/>
+    <hyperlink ref="G30" r:id="rId38" display="t001@heshidai.com"/>
+    <hyperlink ref="G46" r:id="rId39" display="t001@heshidai.com"/>
+    <hyperlink ref="G32" r:id="rId40" display="t001@heshidai.com"/>
+    <hyperlink ref="G48" r:id="rId41" display="t001@heshidai.com"/>
+    <hyperlink ref="G21" r:id="rId42" display="t001@heshidai.com"/>
+    <hyperlink ref="G37" r:id="rId43" display="t001@heshidai.com"/>
+    <hyperlink ref="G53" r:id="rId44" display="t001@heshidai.com"/>
+    <hyperlink ref="G23" r:id="rId45" display="t001@heshidai.com"/>
+    <hyperlink ref="G39" r:id="rId46" display="t001@heshidai.com"/>
+    <hyperlink ref="G55" r:id="rId47" display="t001@heshidai.com"/>
+    <hyperlink ref="G25" r:id="rId48" display="t001@heshidai.com"/>
+    <hyperlink ref="G41" r:id="rId49" display="t001@heshidai.com"/>
+    <hyperlink ref="G57" r:id="rId50" display="t001@heshidai.com"/>
+    <hyperlink ref="G27" r:id="rId51" display="t001@heshidai.com"/>
+    <hyperlink ref="G43" r:id="rId52" display="t001@heshidai.com"/>
+    <hyperlink ref="G59" r:id="rId53" display="t001@heshidai.com"/>
+    <hyperlink ref="G29" r:id="rId54" display="t001@heshidai.com"/>
+    <hyperlink ref="G45" r:id="rId55" display="t001@heshidai.com"/>
+    <hyperlink ref="G31" r:id="rId56" display="t001@heshidai.com"/>
+    <hyperlink ref="G47" r:id="rId57" display="t001@heshidai.com"/>
+    <hyperlink ref="G33" r:id="rId58" display="t001@heshidai.com"/>
+    <hyperlink ref="G49" r:id="rId59" display="t001@heshidai.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId60"/>

--- a/doc/bak/用户批量导入模板.xlsx
+++ b/doc/bak/用户批量导入模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="252">
   <si>
     <t>账号</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -779,6 +779,20 @@
   </si>
   <si>
     <t>t059</t>
+  </si>
+  <si>
+    <t>部门</t>
+  </si>
+  <si>
+    <t>岗位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>职级</t>
+  </si>
+  <si>
+    <t>上级领导(账号)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1743,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H1" sqref="H1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1754,10 +1768,11 @@
     <col min="4" max="4" width="27.75" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>188</v>
       </c>
@@ -1779,8 +1794,20 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>189</v>
       </c>
@@ -1803,7 +1830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>190</v>
       </c>
@@ -1826,7 +1853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -1849,7 +1876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>192</v>
       </c>
@@ -1872,7 +1899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>193</v>
       </c>
@@ -1895,7 +1922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>194</v>
       </c>
@@ -1918,7 +1945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>195</v>
       </c>
@@ -1941,7 +1968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -1964,7 +1991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>197</v>
       </c>
@@ -1987,7 +2014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>198</v>
       </c>
@@ -2010,7 +2037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>199</v>
       </c>
@@ -2033,7 +2060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -2056,7 +2083,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>201</v>
       </c>
@@ -2079,7 +2106,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>202</v>
       </c>
@@ -2102,7 +2129,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>203</v>
       </c>
